--- a/data/phase2/payment_info - Manual Additions.xlsx
+++ b/data/phase2/payment_info - Manual Additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gray Collins\Documents\GitHub\kampala-rct\data\phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6D6E95-A5A4-409A-88C9-37DF115D7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B65C0-864B-4417-8EBF-BE650751A51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="1140" windowWidth="20910" windowHeight="13410" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
+    <workbookView xWindow="44490" yWindow="1560" windowWidth="20910" windowHeight="13410" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
   </bookViews>
   <sheets>
     <sheet name="payment_info - Manual Additions" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1814,7 +1814,9 @@
       <c r="H16" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>25</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="4">
         <v>7</v>
@@ -2232,7 +2234,9 @@
       <c r="H27" s="3">
         <v>0.625</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2">
+        <v>25</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="4">
         <v>6</v>
@@ -2477,6 +2481,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082D308C12E0ECB43B34C81816A0DA199" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af009a70c9360392eaedb57a457e64cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c288c992-a64d-4e49-99af-b744c8bef618" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5707a7f5893f118a7f2f40900c659a33" ns3:_="">
     <xsd:import namespace="c288c992-a64d-4e49-99af-b744c8bef618"/>
@@ -2602,12 +2612,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2618,6 +2622,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD87E720-1BA2-4EE6-8C20-0C22A2AEF820}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c288c992-a64d-4e49-99af-b744c8bef618"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44322C12-9DA3-475D-B38A-48FC4D785438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2635,22 +2655,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD87E720-1BA2-4EE6-8C20-0C22A2AEF820}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c288c992-a64d-4e49-99af-b744c8bef618"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D59B10EE-B976-4386-B8C2-25403CD6599A}">
   <ds:schemaRefs>

--- a/data/phase2/payment_info - Manual Additions.xlsx
+++ b/data/phase2/payment_info - Manual Additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gray Collins\Documents\GitHub\kampala-rct\data\phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B65C0-864B-4417-8EBF-BE650751A51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AEAD0-7A77-47B1-B94A-00B1086E0098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44490" yWindow="1560" windowWidth="20910" windowHeight="13410" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
+    <workbookView xWindow="-20670" yWindow="2955" windowWidth="19200" windowHeight="11175" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
   </bookViews>
   <sheets>
     <sheet name="payment_info - Manual Additions" sheetId="1" r:id="rId1"/>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF892ECB-EAFA-4431-B9A6-851E3343F438}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1322,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="K3">
         <v>8</v>
       </c>
       <c r="L3">
-        <v>32000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1633,6 +1633,7 @@
         <v>8</v>
       </c>
       <c r="L11">
+        <f>K11*J11</f>
         <v>32000</v>
       </c>
     </row>
@@ -1894,13 +1895,14 @@
         <v>20</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K18">
         <v>9</v>
       </c>
       <c r="L18">
-        <v>18000</v>
+        <f>K18*J18</f>
+        <v>27000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1938,7 +1940,6 @@
         <v>8</v>
       </c>
       <c r="L19">
-        <f>K19*J19</f>
         <v>24000</v>
       </c>
     </row>
@@ -2053,6 +2054,7 @@
         <v>9</v>
       </c>
       <c r="L22">
+        <f>J22*K22</f>
         <v>22500</v>
       </c>
     </row>

--- a/data/phase2/payment_info - Manual Additions.xlsx
+++ b/data/phase2/payment_info - Manual Additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gray Collins\Documents\GitHub\kampala-rct\data\phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AEAD0-7A77-47B1-B94A-00B1086E0098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90603AFF-8293-435B-8494-E8E165BDC201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20670" yWindow="2955" windowWidth="19200" windowHeight="11175" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
+    <workbookView xWindow="-28800" yWindow="1440" windowWidth="19200" windowHeight="11175" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
   </bookViews>
   <sheets>
     <sheet name="payment_info - Manual Additions" sheetId="1" r:id="rId1"/>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF892ECB-EAFA-4431-B9A6-851E3343F438}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2125,13 +2125,13 @@
         <v>35</v>
       </c>
       <c r="J24">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K24">
         <v>8</v>
       </c>
       <c r="L24">
-        <v>24000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2483,12 +2483,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082D308C12E0ECB43B34C81816A0DA199" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af009a70c9360392eaedb57a457e64cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c288c992-a64d-4e49-99af-b744c8bef618" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5707a7f5893f118a7f2f40900c659a33" ns3:_="">
     <xsd:import namespace="c288c992-a64d-4e49-99af-b744c8bef618"/>
@@ -2614,16 +2623,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D59B10EE-B976-4386-B8C2-25403CD6599A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD87E720-1BA2-4EE6-8C20-0C22A2AEF820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2639,7 +2647,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44322C12-9DA3-475D-B38A-48FC4D785438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2655,12 +2663,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D59B10EE-B976-4386-B8C2-25403CD6599A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/phase2/payment_info - Manual Additions.xlsx
+++ b/data/phase2/payment_info - Manual Additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gray Collins\Documents\GitHub\kampala-rct\data\phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90603AFF-8293-435B-8494-E8E165BDC201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9C9A8-9F58-4F70-8D9C-18F180AFB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1440" windowWidth="19200" windowHeight="11175" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
+    <workbookView xWindow="-17460" yWindow="1665" windowWidth="11850" windowHeight="12615" xr2:uid="{591CBA4C-5D1B-42A3-A9AE-CE5AA1918A11}"/>
   </bookViews>
   <sheets>
     <sheet name="payment_info - Manual Additions" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +470,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -822,13 +828,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1206,14 +1214,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF892ECB-EAFA-4431-B9A6-851E3343F438}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="16.90625" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="6"/>
     <col min="12" max="12" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1245,7 +1254,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1283,7 +1292,7 @@
       <c r="I2">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>5000</v>
       </c>
       <c r="K2">
@@ -1321,7 +1330,7 @@
       <c r="I3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>5000</v>
       </c>
       <c r="K3">
@@ -1359,7 +1368,7 @@
       <c r="I4">
         <v>35</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>3000</v>
       </c>
       <c r="K4">
@@ -1397,7 +1406,7 @@
       <c r="I5">
         <v>30</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>2500</v>
       </c>
       <c r="K5">
@@ -1435,7 +1444,7 @@
       <c r="I6" s="2">
         <v>25</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>2000</v>
       </c>
       <c r="K6" s="4">
@@ -1474,7 +1483,7 @@
       <c r="I7">
         <v>40</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>3000</v>
       </c>
       <c r="K7">
@@ -1512,7 +1521,7 @@
       <c r="I8">
         <v>40</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>3000</v>
       </c>
       <c r="K8">
@@ -1550,7 +1559,7 @@
       <c r="I9">
         <v>40</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>3000</v>
       </c>
       <c r="K9">
@@ -1588,7 +1597,7 @@
       <c r="I10">
         <v>40</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>7000</v>
       </c>
       <c r="K10">
@@ -1626,7 +1635,7 @@
       <c r="I11">
         <v>25</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>4000</v>
       </c>
       <c r="K11">
@@ -1665,7 +1674,7 @@
       <c r="I12">
         <v>25</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>2000</v>
       </c>
       <c r="K12">
@@ -1703,7 +1712,7 @@
       <c r="I13">
         <v>30</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>2000</v>
       </c>
       <c r="K13">
@@ -1741,7 +1750,7 @@
       <c r="I14">
         <v>30</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>2000</v>
       </c>
       <c r="K14">
@@ -1779,7 +1788,7 @@
       <c r="I15" s="2">
         <v>25</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="7">
         <v>2000</v>
       </c>
       <c r="K15" s="4">
@@ -1818,7 +1827,7 @@
       <c r="I16" s="2">
         <v>25</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="4">
         <v>7</v>
       </c>
@@ -1855,7 +1864,7 @@
       <c r="I17" s="2">
         <v>20</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>2000</v>
       </c>
       <c r="K17" s="4">
@@ -1894,7 +1903,7 @@
       <c r="I18">
         <v>20</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>3000</v>
       </c>
       <c r="K18">
@@ -1933,7 +1942,7 @@
       <c r="I19">
         <v>25</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>3000</v>
       </c>
       <c r="K19">
@@ -1971,7 +1980,7 @@
       <c r="I20">
         <v>20</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <v>2000</v>
       </c>
       <c r="K20">
@@ -2009,7 +2018,7 @@
       <c r="I21">
         <v>30</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>4000</v>
       </c>
       <c r="K21">
@@ -2047,7 +2056,7 @@
       <c r="I22">
         <v>30</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <v>2500</v>
       </c>
       <c r="K22">
@@ -2086,7 +2095,7 @@
       <c r="I23">
         <v>35</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="6">
         <v>3000</v>
       </c>
       <c r="K23">
@@ -2124,7 +2133,7 @@
       <c r="I24">
         <v>35</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <v>2500</v>
       </c>
       <c r="K24">
@@ -2162,7 +2171,7 @@
       <c r="I25">
         <v>45</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="6">
         <v>3000</v>
       </c>
       <c r="K25">
@@ -2200,7 +2209,7 @@
       <c r="I26" s="2">
         <v>25</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="7">
         <v>2000</v>
       </c>
       <c r="K26" s="4">
@@ -2239,7 +2248,7 @@
       <c r="I27" s="2">
         <v>25</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="4">
         <v>6</v>
       </c>
@@ -2276,7 +2285,7 @@
       <c r="I28">
         <v>45</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="6">
         <v>2000</v>
       </c>
       <c r="K28">
@@ -2314,7 +2323,7 @@
       <c r="I29">
         <v>20</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>3000</v>
       </c>
       <c r="K29">
@@ -2352,7 +2361,7 @@
       <c r="I30">
         <v>20</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>3000</v>
       </c>
       <c r="K30">
@@ -2390,7 +2399,7 @@
       <c r="I31">
         <v>20</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>2000</v>
       </c>
       <c r="K31">
@@ -2428,7 +2437,7 @@
       <c r="I32">
         <v>15</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="6">
         <v>3500</v>
       </c>
       <c r="K32">
@@ -2466,7 +2475,7 @@
       <c r="I33">
         <v>20</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <v>3000</v>
       </c>
       <c r="K33">
@@ -2483,21 +2492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082D308C12E0ECB43B34C81816A0DA199" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af009a70c9360392eaedb57a457e64cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c288c992-a64d-4e49-99af-b744c8bef618" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5707a7f5893f118a7f2f40900c659a33" ns3:_="">
     <xsd:import namespace="c288c992-a64d-4e49-99af-b744c8bef618"/>
@@ -2623,10 +2617,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D59B10EE-B976-4386-B8C2-25403CD6599A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44322C12-9DA3-475D-B38A-48FC4D785438}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c288c992-a64d-4e49-99af-b744c8bef618"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2648,19 +2667,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44322C12-9DA3-475D-B38A-48FC4D785438}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D59B10EE-B976-4386-B8C2-25403CD6599A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c288c992-a64d-4e49-99af-b744c8bef618"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>